--- a/measure course work.xlsx
+++ b/measure course work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -392,7 +392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -566,7 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -720,10 +720,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -758,19 +758,19 @@
         <v>100</v>
       </c>
       <c r="B2">
-        <v>6543</v>
+        <v>4695</v>
       </c>
       <c r="C2">
-        <v>4116</v>
+        <v>2035</v>
       </c>
       <c r="D2">
-        <v>4939</v>
+        <v>6347</v>
       </c>
       <c r="E2">
-        <v>1313</v>
+        <v>2812</v>
       </c>
       <c r="F2">
-        <v>6001</v>
+        <v>4653</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -778,19 +778,19 @@
         <v>200</v>
       </c>
       <c r="B3">
-        <v>7243</v>
+        <v>8725</v>
       </c>
       <c r="C3">
-        <v>6909</v>
+        <v>3376</v>
       </c>
       <c r="D3">
-        <v>9681</v>
+        <v>12227</v>
       </c>
       <c r="E3">
-        <v>2035</v>
+        <v>3706</v>
       </c>
       <c r="F3">
-        <v>11314</v>
+        <v>9155</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -798,19 +798,19 @@
         <v>300</v>
       </c>
       <c r="B4">
-        <v>10665</v>
+        <v>12834</v>
       </c>
       <c r="C4">
-        <v>9129</v>
+        <v>5110</v>
       </c>
       <c r="D4">
-        <v>13319</v>
+        <v>18430</v>
       </c>
       <c r="E4">
-        <v>2857</v>
+        <v>5548</v>
       </c>
       <c r="F4">
-        <v>16450</v>
+        <v>13771</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -818,19 +818,19 @@
         <v>400</v>
       </c>
       <c r="B5">
-        <v>14215</v>
+        <v>17069</v>
       </c>
       <c r="C5">
-        <v>11270</v>
+        <v>7102</v>
       </c>
       <c r="D5">
-        <v>19229</v>
+        <v>24501</v>
       </c>
       <c r="E5">
-        <v>3637</v>
+        <v>7305</v>
       </c>
       <c r="F5">
-        <v>23539</v>
+        <v>18584</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -838,79 +838,19 @@
         <v>500</v>
       </c>
       <c r="B6">
-        <v>17770</v>
+        <v>21537</v>
       </c>
       <c r="C6">
-        <v>15405</v>
+        <v>9844</v>
       </c>
       <c r="D6">
-        <v>21119</v>
+        <v>29786</v>
       </c>
       <c r="E6">
-        <v>4483</v>
+        <v>9204</v>
       </c>
       <c r="F6">
-        <v>26186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>600</v>
-      </c>
-      <c r="B7">
-        <v>21216</v>
-      </c>
-      <c r="C7">
-        <v>17982</v>
-      </c>
-      <c r="D7">
-        <v>27425</v>
-      </c>
-      <c r="E7">
-        <v>5352</v>
-      </c>
-      <c r="F7">
-        <v>34094</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>700</v>
-      </c>
-      <c r="B8">
-        <v>24641</v>
-      </c>
-      <c r="C8">
-        <v>20821</v>
-      </c>
-      <c r="D8">
-        <v>31148</v>
-      </c>
-      <c r="E8">
-        <v>6181</v>
-      </c>
-      <c r="F8">
-        <v>39361</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>800</v>
-      </c>
-      <c r="B9">
-        <v>27801</v>
-      </c>
-      <c r="C9">
-        <v>22303</v>
-      </c>
-      <c r="D9">
-        <v>36228</v>
-      </c>
-      <c r="E9">
-        <v>6915</v>
-      </c>
-      <c r="F9">
-        <v>42342</v>
+        <v>23554</v>
       </c>
     </row>
   </sheetData>

--- a/measure course work.xlsx
+++ b/measure course work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Node udp sizeOfMessage: 32768</t>
   </si>
@@ -56,6 +56,15 @@
   <si>
     <t>C# http listener</t>
   </si>
+  <si>
+    <t>Node js</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>Однопоточный</t>
+  </si>
 </sst>
 </file>
 
@@ -91,10 +100,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -103,6 +115,2484 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Сравнение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>node js </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t>и </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>C# udp-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t>сервера при размере сообщения </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>16384</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node js</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1411</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C#</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="87483136"/>
+        <c:axId val="87561344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="87483136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Количество</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> итерация</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1200" b="0">
+                  <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="87561344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="87561344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Время</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> отвева </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>ms</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1200" b="0">
+                  <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.5000000000000001E-2"/>
+              <c:y val="0.3346314523184602"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="87483136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" b="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Сравнение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>node js </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>и </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>C# udp-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>сервера при размере сообщения </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>32768 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>байт</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1200" b="0">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node js</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$2:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C#</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$2:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1418</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="90218496"/>
+        <c:axId val="90220032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="90218496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Количество</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> итераций</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1200" b="0">
+                  <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90220032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="90220032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Время</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> отклика</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1200" b="0">
+                  <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90218496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" b="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Сравнение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Node js </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>и </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>C# tcp-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>серверов при размере сообщения </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>32768 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>байт</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1200" b="0">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node js</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>879</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1718</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3390</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6857</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27266</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C#</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1172</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2071</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="80090624"/>
+        <c:axId val="80092544"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="80090624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Количество</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> итераций</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1200" b="0">
+                  <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80092544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="80092544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0" i="0" baseline="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Время ответа мс</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>.</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.5000000000000001E-2"/>
+              <c:y val="0.27861293379994168"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80090624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" b="0"/>
+              <a:t>Сравнение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
+              <a:t>Node js </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0"/>
+              <a:t>и </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
+              <a:t>C# tcp-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0"/>
+              <a:t>серверов при размере сообщения 16384 байт</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1200" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node js</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>879</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1788</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3483</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6840</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C#</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1361</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="117267840"/>
+        <c:axId val="117302784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="117267840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Количество</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> итераций</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1200" b="0">
+                  <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="117302784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="117302784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Время ответа мс.</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="117267840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" b="0" i="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Сравнение многопоточного и однопоточного режимов </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>http-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" b="0" i="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>сервера на </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Node js</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1200" b="0" i="0" baseline="0">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node js</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист3!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист3!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3376</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9844</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Однопоточный</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист3!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист3!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6347</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12227</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18430</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29786</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="89749376"/>
+        <c:axId val="89750912"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="89749376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Количество</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> запросов</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1200" b="0">
+                  <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="89750912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="89750912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Время ответа мс.</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="89749376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" b="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Сравнение </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Node</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> js </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>и </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>C#</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>http-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>серверов запущенных под</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> iis</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1200" b="0">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C#</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист3!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист3!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4695</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8725</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12834</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17069</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21537</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node js</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист3!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист3!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3706</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5548</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7305</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9204</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="89752320"/>
+        <c:axId val="112355968"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="89752320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Количество</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> запросов</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1200" b="0">
+                  <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="112355968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="112355968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Время ответа мс.</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="89752320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" b="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Сравнение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Node js </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>и </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>C# http-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>серверов запущенных в многопоточных режимах</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1200" b="0">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node js</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист3!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист3!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3376</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9844</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C#</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист3!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист3!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4653</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13771</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18584</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23554</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="112780032"/>
+        <c:axId val="112781568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="112780032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Количество запросов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="112781568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="112781568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Время ответа мс.</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="112780032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2438400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2343150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2124075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1514475</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1428750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1419225</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -390,10 +2880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="B1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" activeCellId="1" sqref="E1:F9 B1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -406,168 +2896,184 @@
     <col min="6" max="6" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="2:6">
+      <c r="B1" s="2"/>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
+    <row r="2" spans="2:6">
+      <c r="B2">
         <v>64</v>
-      </c>
-      <c r="B2" s="1">
-        <v>27</v>
       </c>
       <c r="C2">
         <v>28</v>
       </c>
       <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1">
+        <v>27</v>
+      </c>
+      <c r="F2">
         <v>31</v>
       </c>
-      <c r="E2">
-        <v>30</v>
-      </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
+    <row r="3" spans="2:6">
+      <c r="B3">
         <v>128</v>
-      </c>
-      <c r="B3" s="1">
-        <v>42</v>
       </c>
       <c r="C3">
         <v>40</v>
       </c>
       <c r="D3">
+        <v>38</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42</v>
+      </c>
+      <c r="F3">
         <v>45</v>
       </c>
-      <c r="E3">
-        <v>38</v>
-      </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
+    <row r="4" spans="2:6">
+      <c r="B4">
         <v>256</v>
-      </c>
-      <c r="B4" s="1">
-        <v>74</v>
       </c>
       <c r="C4">
         <v>67</v>
       </c>
       <c r="D4">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1">
+        <v>74</v>
+      </c>
+      <c r="F4">
         <v>69</v>
       </c>
-      <c r="E4">
-        <v>60</v>
-      </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
+    <row r="5" spans="2:6">
+      <c r="B5">
         <v>512</v>
-      </c>
-      <c r="B5" s="1">
-        <v>132</v>
       </c>
       <c r="C5">
         <v>115</v>
       </c>
       <c r="D5">
+        <v>112</v>
+      </c>
+      <c r="E5" s="1">
+        <v>132</v>
+      </c>
+      <c r="F5">
         <v>116</v>
       </c>
-      <c r="E5">
-        <v>112</v>
-      </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
+    <row r="6" spans="2:6">
+      <c r="B6">
         <v>1024</v>
-      </c>
-      <c r="B6" s="1">
-        <v>236</v>
       </c>
       <c r="C6">
         <v>190</v>
       </c>
       <c r="D6">
+        <v>173</v>
+      </c>
+      <c r="E6" s="1">
+        <v>236</v>
+      </c>
+      <c r="F6">
         <v>185</v>
       </c>
-      <c r="E6">
-        <v>173</v>
-      </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
+    <row r="7" spans="2:6">
+      <c r="B7">
         <v>2048</v>
-      </c>
-      <c r="B7" s="1">
-        <v>465</v>
       </c>
       <c r="C7">
         <v>359</v>
       </c>
       <c r="D7">
+        <v>298</v>
+      </c>
+      <c r="E7" s="1">
+        <v>465</v>
+      </c>
+      <c r="F7">
         <v>365</v>
       </c>
-      <c r="E7">
-        <v>298</v>
-      </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
+    <row r="8" spans="2:6">
+      <c r="B8">
         <v>4096</v>
-      </c>
-      <c r="B8" s="1">
-        <v>897</v>
       </c>
       <c r="C8">
         <v>710</v>
       </c>
       <c r="D8">
+        <v>595</v>
+      </c>
+      <c r="E8" s="1">
+        <v>897</v>
+      </c>
+      <c r="F8">
         <v>725</v>
       </c>
-      <c r="E8">
-        <v>595</v>
-      </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
+    <row r="9" spans="2:6">
+      <c r="B9">
         <v>8192</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1795</v>
       </c>
       <c r="C9">
         <v>1411</v>
       </c>
       <c r="D9">
+        <v>1144</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1795</v>
+      </c>
+      <c r="F9">
         <v>1418</v>
       </c>
-      <c r="E9">
-        <v>1144</v>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCellId="2" sqref="C1:C8 E1:E8 A1:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -581,16 +3087,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -712,18 +3218,33 @@
         <v>1361</v>
       </c>
     </row>
+    <row r="10" spans="1:5">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" activeCellId="2" sqref="A1:A6 C1:C6 F1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -738,19 +3259,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -853,8 +3374,26 @@
         <v>23554</v>
       </c>
     </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/measure course work.xlsx
+++ b/measure course work.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Node udp sizeOfMessage: 32768</t>
   </si>
@@ -57,13 +57,13 @@
     <t>C# http listener</t>
   </si>
   <si>
-    <t>Node js</t>
+    <t>Однопоточный</t>
   </si>
   <si>
-    <t>C#</t>
+    <t>.NET</t>
   </si>
   <si>
-    <t>Однопоточный</t>
+    <t>Node.js</t>
   </si>
 </sst>
 </file>
@@ -131,38 +131,37 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU"/>
+              <a:rPr lang="ru-RU" sz="1200" b="0"/>
               <a:t>Сравнение</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0"/>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>node js </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
+              <a:t>Node.js </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0"/>
               <a:t>и </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>C# udp-</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
+              <a:t>.NET udp-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0"/>
               <a:t>сервера при размере сообщения </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
               <a:t>16384</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="ru-RU" sz="1200" b="0"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -177,7 +176,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Node js</c:v>
+                  <c:v>Node.js</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -261,7 +260,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>C#</c:v>
+                  <c:v>.NET</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -337,11 +336,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="87483136"/>
-        <c:axId val="87561344"/>
+        <c:axId val="99486336"/>
+        <c:axId val="124687488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87483136"/>
+        <c:axId val="99486336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -376,18 +375,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87561344"/>
+        <c:crossAx val="124687488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87561344"/>
+        <c:axId val="124687488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -435,26 +433,25 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="2.5000000000000001E-2"/>
-              <c:y val="0.3346314523184602"/>
+              <c:y val="0.33463145231846031"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87483136"/>
+        <c:crossAx val="99486336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -492,7 +489,7 @@
                 <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t>node js </a:t>
+              <a:t>Node.js </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
@@ -506,7 +503,7 @@
                 <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t>C# udp-</a:t>
+              <a:t>.NET udp-</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
@@ -536,7 +533,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -551,7 +547,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Node js</c:v>
+                  <c:v>Node.js</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -635,7 +631,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>C#</c:v>
+                  <c:v>.NET</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -711,11 +707,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="90218496"/>
-        <c:axId val="90220032"/>
+        <c:axId val="124712832"/>
+        <c:axId val="124940288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90218496"/>
+        <c:axId val="124712832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -750,18 +746,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90220032"/>
+        <c:crossAx val="124940288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90220032"/>
+        <c:axId val="124940288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -797,24 +792,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90218496"/>
+        <c:crossAx val="124712832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -852,7 +845,7 @@
                 <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t>Node js </a:t>
+              <a:t>Node.js </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
@@ -866,7 +859,7 @@
                 <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t>C# tcp-</a:t>
+              <a:t>.NET tcp-</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
@@ -896,7 +889,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -911,7 +903,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Node js</c:v>
+                  <c:v>Node.js</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -989,7 +981,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>C#</c:v>
+                  <c:v>.NET</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1059,11 +1051,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="80090624"/>
-        <c:axId val="80092544"/>
+        <c:axId val="124982400"/>
+        <c:axId val="124984320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80090624"/>
+        <c:axId val="124982400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1098,18 +1090,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80092544"/>
+        <c:crossAx val="124984320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80092544"/>
+        <c:axId val="124984320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1150,26 +1141,25 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="2.5000000000000001E-2"/>
-              <c:y val="0.27861293379994168"/>
+              <c:y val="0.27861293379994206"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80090624"/>
+        <c:crossAx val="124982400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1198,7 +1188,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
-              <a:t>Node js </a:t>
+              <a:t>Node.js </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0"/>
@@ -1206,7 +1196,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
-              <a:t>C# tcp-</a:t>
+              <a:t>.NET tcp-</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0"/>
@@ -1216,7 +1206,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1231,7 +1220,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Node js</c:v>
+                  <c:v>Node.js</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1309,7 +1298,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>C#</c:v>
+                  <c:v>.NET</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1379,11 +1368,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="117267840"/>
-        <c:axId val="117302784"/>
+        <c:axId val="125034496"/>
+        <c:axId val="125036416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117267840"/>
+        <c:axId val="125034496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1418,18 +1407,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117302784"/>
+        <c:crossAx val="125036416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117302784"/>
+        <c:axId val="125036416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1454,24 +1442,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117267840"/>
+        <c:crossAx val="125034496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1516,7 +1502,7 @@
                 <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t>Node js</a:t>
+              <a:t>Node.js</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU" sz="1200" b="0" i="0" baseline="0">
               <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
@@ -1540,7 +1526,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Node js</c:v>
+                  <c:v>Node.js</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1664,11 +1650,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="89749376"/>
-        <c:axId val="89750912"/>
+        <c:axId val="125082624"/>
+        <c:axId val="125199488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89749376"/>
+        <c:axId val="125082624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1707,14 +1693,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89750912"/>
+        <c:crossAx val="125199488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89750912"/>
+        <c:axId val="125199488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1743,7 +1729,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89749376"/>
+        <c:crossAx val="125082624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1756,7 +1742,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1794,7 +1780,7 @@
                 <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t> js </a:t>
+              <a:t>.js </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
@@ -1808,7 +1794,7 @@
                 <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t>C#</a:t>
+              <a:t>.NET</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
@@ -1860,7 +1846,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>C#</c:v>
+                  <c:v>.NET</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1926,7 +1912,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Node js</c:v>
+                  <c:v>Node.js</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1984,11 +1970,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="89752320"/>
-        <c:axId val="112355968"/>
+        <c:axId val="125228928"/>
+        <c:axId val="125247488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89752320"/>
+        <c:axId val="125228928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2027,14 +2013,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112355968"/>
+        <c:crossAx val="125247488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112355968"/>
+        <c:axId val="125247488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2063,7 +2049,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89752320"/>
+        <c:crossAx val="125228928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2076,7 +2062,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2159,7 +2145,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Node js</c:v>
+                  <c:v>Node.js</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2225,7 +2211,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>C#</c:v>
+                  <c:v>.NET</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2283,11 +2269,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="112780032"/>
-        <c:axId val="112781568"/>
+        <c:axId val="125288832"/>
+        <c:axId val="125290752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112780032"/>
+        <c:axId val="125288832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2315,14 +2301,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112781568"/>
+        <c:crossAx val="125290752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112781568"/>
+        <c:axId val="125290752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2351,7 +2337,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112780032"/>
+        <c:crossAx val="125288832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2364,7 +2350,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2404,16 +2390,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2343150</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2152650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2440,15 +2426,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1657350</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2124075</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>1619250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2469,16 +2455,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1514475</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1314450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1428750</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2505,15 +2491,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1171575</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2564,16 +2550,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1276350</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2883,7 +2869,7 @@
   <dimension ref="B1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" activeCellId="1" sqref="E1:F9 B1:B9"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2899,13 +2885,13 @@
     <row r="1" spans="2:6">
       <c r="B1" s="2"/>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
         <v>14</v>
@@ -3073,7 +3059,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCellId="2" sqref="C1:C8 E1:E8 A1:A8"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3087,10 +3073,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
@@ -3241,10 +3227,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="2" sqref="A1:A6 C1:C6 F1:F6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3255,26 +3241,30 @@
     <col min="4" max="4" width="27.85546875" customWidth="1"/>
     <col min="5" max="5" width="28.7109375" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" t="s">
         <v>14</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
       </c>
       <c r="F1" t="s">
         <v>14</v>
       </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>100</v>
       </c>
@@ -3293,8 +3283,11 @@
       <c r="F2">
         <v>4653</v>
       </c>
+      <c r="G2">
+        <v>2035</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>200</v>
       </c>
@@ -3313,8 +3306,11 @@
       <c r="F3">
         <v>9155</v>
       </c>
+      <c r="G3">
+        <v>3376</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>300</v>
       </c>
@@ -3333,8 +3329,11 @@
       <c r="F4">
         <v>13771</v>
       </c>
+      <c r="G4">
+        <v>5110</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>400</v>
       </c>
@@ -3353,8 +3352,11 @@
       <c r="F5">
         <v>18584</v>
       </c>
+      <c r="G5">
+        <v>7102</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>500</v>
       </c>
@@ -3373,8 +3375,16 @@
       <c r="F6">
         <v>23554</v>
       </c>
+      <c r="G6">
+        <v>9844</v>
+      </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="7" spans="1:7">
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="B8" t="s">
         <v>8</v>
       </c>

--- a/measure course work.xlsx
+++ b/measure course work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -162,6 +162,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -326,21 +327,21 @@
                   <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>595</c:v>
+                  <c:v>635</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1144</c:v>
+                  <c:v>1264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="99486336"/>
-        <c:axId val="124687488"/>
+        <c:axId val="85924480"/>
+        <c:axId val="112235648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99486336"/>
+        <c:axId val="85924480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -375,17 +376,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124687488"/>
+        <c:crossAx val="112235648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124687488"/>
+        <c:axId val="112235648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -439,19 +441,20 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99486336"/>
+        <c:crossAx val="85924480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -533,6 +536,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -694,24 +698,24 @@
                   <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>365</c:v>
+                  <c:v>395</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>725</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1418</c:v>
+                  <c:v>1618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="124712832"/>
-        <c:axId val="124940288"/>
+        <c:axId val="112461696"/>
+        <c:axId val="112484352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="124712832"/>
+        <c:axId val="112461696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -746,17 +750,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124940288"/>
+        <c:crossAx val="112484352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124940288"/>
+        <c:axId val="112484352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -792,22 +797,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124712832"/>
+        <c:crossAx val="112461696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -889,6 +896,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -913,10 +921,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист2!$A$2:$A$8</c:f>
+              <c:f>Лист2!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>64</c:v>
                 </c:pt>
@@ -937,36 +945,42 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист2!$B$2:$B$8</c:f>
+              <c:f>Лист2!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>429</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>879</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1718</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3390</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6857</c:v>
+                  <c:v>604</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14010</c:v>
+                  <c:v>1215</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27266</c:v>
+                  <c:v>2410</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -991,10 +1005,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист2!$A$2:$A$8</c:f>
+              <c:f>Лист2!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>64</c:v>
                 </c:pt>
@@ -1015,16 +1029,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист2!$D$2:$D$8</c:f>
+              <c:f>Лист2!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>60</c:v>
                 </c:pt>
@@ -1044,18 +1061,21 @@
                   <c:v>1172</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2071</c:v>
+                  <c:v>2191</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="124982400"/>
-        <c:axId val="124984320"/>
+        <c:axId val="112604288"/>
+        <c:axId val="112606208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="124982400"/>
+        <c:axId val="112604288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1090,17 +1110,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124984320"/>
+        <c:crossAx val="112606208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124984320"/>
+        <c:axId val="112606208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1141,25 +1162,26 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="2.5000000000000001E-2"/>
-              <c:y val="0.27861293379994206"/>
+              <c:y val="0.27861293379994218"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124982400"/>
+        <c:crossAx val="112604288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1206,6 +1228,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1230,10 +1253,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист2!$A$2:$A$8</c:f>
+              <c:f>Лист2!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>64</c:v>
                 </c:pt>
@@ -1254,36 +1277,42 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист2!$C$2:$C$8</c:f>
+              <c:f>Лист2!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>243</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>427</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>879</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1788</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3483</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6840</c:v>
+                  <c:v>612</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13875</c:v>
+                  <c:v>1210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1308,10 +1337,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист2!$A$2:$A$8</c:f>
+              <c:f>Лист2!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>64</c:v>
                 </c:pt>
@@ -1332,16 +1361,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист2!$E$2:$E$8</c:f>
+              <c:f>Лист2!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -1362,17 +1394,20 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1361</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="125034496"/>
-        <c:axId val="125036416"/>
+        <c:axId val="112648192"/>
+        <c:axId val="112650112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="125034496"/>
+        <c:axId val="112648192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1407,17 +1442,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125036416"/>
+        <c:crossAx val="112650112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125036416"/>
+        <c:axId val="112650112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1442,22 +1478,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125034496"/>
+        <c:crossAx val="112648192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1650,11 +1688,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="125082624"/>
-        <c:axId val="125199488"/>
+        <c:axId val="112565248"/>
+        <c:axId val="112747648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="125082624"/>
+        <c:axId val="112565248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1693,14 +1731,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125199488"/>
+        <c:crossAx val="112747648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125199488"/>
+        <c:axId val="112747648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1729,7 +1767,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125082624"/>
+        <c:crossAx val="112565248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1742,7 +1780,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1970,11 +2008,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="125228928"/>
-        <c:axId val="125247488"/>
+        <c:axId val="112785280"/>
+        <c:axId val="112799744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="125228928"/>
+        <c:axId val="112785280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2013,14 +2051,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125247488"/>
+        <c:crossAx val="112799744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125247488"/>
+        <c:axId val="112799744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2049,7 +2087,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125228928"/>
+        <c:crossAx val="112785280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2062,7 +2100,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2269,11 +2307,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="125288832"/>
-        <c:axId val="125290752"/>
+        <c:axId val="112836992"/>
+        <c:axId val="112838912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="125288832"/>
+        <c:axId val="112836992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2301,14 +2339,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125290752"/>
+        <c:crossAx val="112838912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125290752"/>
+        <c:axId val="112838912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2337,7 +2375,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125288832"/>
+        <c:crossAx val="112836992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2350,7 +2388,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2869,7 +2907,7 @@
   <dimension ref="B1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2996,7 +3034,7 @@
         <v>465</v>
       </c>
       <c r="F7">
-        <v>365</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -3007,13 +3045,13 @@
         <v>710</v>
       </c>
       <c r="D8">
-        <v>595</v>
+        <v>635</v>
       </c>
       <c r="E8" s="1">
         <v>897</v>
       </c>
       <c r="F8">
-        <v>725</v>
+        <v>805</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -3024,13 +3062,13 @@
         <v>1411</v>
       </c>
       <c r="D9">
-        <v>1144</v>
+        <v>1264</v>
       </c>
       <c r="E9" s="1">
         <v>1795</v>
       </c>
       <c r="F9">
-        <v>1418</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -3058,8 +3096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3090,10 +3128,10 @@
         <v>64</v>
       </c>
       <c r="B2">
-        <v>429</v>
+        <v>40</v>
       </c>
       <c r="C2">
-        <v>243</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <v>60</v>
@@ -3107,10 +3145,10 @@
         <v>128</v>
       </c>
       <c r="B3">
-        <v>879</v>
+        <v>77</v>
       </c>
       <c r="C3">
-        <v>427</v>
+        <v>42</v>
       </c>
       <c r="D3">
         <v>81</v>
@@ -3124,10 +3162,10 @@
         <v>256</v>
       </c>
       <c r="B4">
-        <v>1718</v>
+        <v>144</v>
       </c>
       <c r="C4">
-        <v>879</v>
+        <v>73</v>
       </c>
       <c r="D4">
         <v>158</v>
@@ -3141,10 +3179,10 @@
         <v>512</v>
       </c>
       <c r="B5">
-        <v>3390</v>
+        <v>297</v>
       </c>
       <c r="C5">
-        <v>1788</v>
+        <v>154</v>
       </c>
       <c r="D5">
         <v>310</v>
@@ -3158,10 +3196,10 @@
         <v>1024</v>
       </c>
       <c r="B6">
-        <v>6857</v>
+        <v>604</v>
       </c>
       <c r="C6">
-        <v>3483</v>
+        <v>300</v>
       </c>
       <c r="D6">
         <v>592</v>
@@ -3175,10 +3213,10 @@
         <v>2048</v>
       </c>
       <c r="B7">
-        <v>14010</v>
+        <v>1215</v>
       </c>
       <c r="C7">
-        <v>6840</v>
+        <v>612</v>
       </c>
       <c r="D7">
         <v>1172</v>
@@ -3192,16 +3230,33 @@
         <v>4096</v>
       </c>
       <c r="B8">
-        <v>27266</v>
+        <v>2410</v>
       </c>
       <c r="C8">
-        <v>13875</v>
+        <v>1210</v>
       </c>
       <c r="D8">
-        <v>2071</v>
+        <v>2191</v>
       </c>
       <c r="E8">
         <v>1361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8192</v>
+      </c>
+      <c r="B9">
+        <v>4853</v>
+      </c>
+      <c r="C9">
+        <v>2456</v>
+      </c>
+      <c r="D9">
+        <v>4353</v>
+      </c>
+      <c r="E9">
+        <v>2654</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3229,7 +3284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/measure course work.xlsx
+++ b/measure course work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -162,7 +162,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -337,11 +336,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="85924480"/>
-        <c:axId val="112235648"/>
+        <c:axId val="95493120"/>
+        <c:axId val="120755712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85924480"/>
+        <c:axId val="95493120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -376,18 +375,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112235648"/>
+        <c:crossAx val="120755712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112235648"/>
+        <c:axId val="120755712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -441,20 +439,19 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85924480"/>
+        <c:crossAx val="95493120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -536,7 +533,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -711,11 +707,368 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="112461696"/>
-        <c:axId val="112484352"/>
+        <c:axId val="120776960"/>
+        <c:axId val="121008512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112461696"/>
+        <c:axId val="120776960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Количество</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> итераций</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1200" b="0">
+                  <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="121008512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="121008512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Время</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> отклика</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1200" b="0">
+                  <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="120776960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" b="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Сравнение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Node.js </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>и </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>.NET tcp-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>серверов при размере сообщения </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>32768 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>байт</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1200" b="0">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node.js</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1215</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2410</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4853</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>.NET</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1172</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2191</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4353</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="121034240"/>
+        <c:axId val="121036160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="121034240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -754,374 +1107,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112484352"/>
+        <c:crossAx val="121036160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112484352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="1200" b="0">
-                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>Время</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
-                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t> отклика</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU" sz="1200" b="0">
-                  <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112461696"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1200" b="0">
-                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>Сравнение</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
-                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
-                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>Node.js </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
-                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>и </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
-                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>.NET tcp-</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
-                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>серверов при размере сообщения </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
-                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>32768 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
-                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>байт</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1200" b="0">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист2!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Node.js</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист2!$A$2:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8192</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист2!$B$2:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>297</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>604</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1215</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2410</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4853</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист2!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>.NET</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист2!$A$2:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8192</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист2!$D$2:$D$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>592</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1172</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2191</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4353</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="112604288"/>
-        <c:axId val="112606208"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="112604288"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="1200" b="0">
-                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>Количество</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="1200" b="0" baseline="0">
-                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t> итераций</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU" sz="1200" b="0">
-                  <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112606208"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="112606208"/>
+        <c:axId val="121036160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1162,13 +1155,13 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="2.5000000000000001E-2"/>
-              <c:y val="0.27861293379994218"/>
+              <c:y val="0.27861293379994229"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112604288"/>
+        <c:crossAx val="121034240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1181,7 +1174,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1403,11 +1396,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="112648192"/>
-        <c:axId val="112650112"/>
+        <c:axId val="121168256"/>
+        <c:axId val="121170176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112648192"/>
+        <c:axId val="121168256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1446,14 +1439,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112650112"/>
+        <c:crossAx val="121170176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112650112"/>
+        <c:axId val="121170176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1482,7 +1475,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112648192"/>
+        <c:crossAx val="121168256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1495,7 +1488,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1688,11 +1681,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="112565248"/>
-        <c:axId val="112747648"/>
+        <c:axId val="121085312"/>
+        <c:axId val="121193984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112565248"/>
+        <c:axId val="121085312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1731,14 +1724,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112747648"/>
+        <c:crossAx val="121193984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112747648"/>
+        <c:axId val="121193984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1767,7 +1760,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112565248"/>
+        <c:crossAx val="121085312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1780,7 +1773,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1876,7 +1869,7 @@
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -1942,7 +1935,7 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -2008,11 +2001,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="112785280"/>
-        <c:axId val="112799744"/>
+        <c:axId val="121231616"/>
+        <c:axId val="121319808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112785280"/>
+        <c:axId val="121231616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2051,14 +2044,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112799744"/>
+        <c:crossAx val="121319808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112799744"/>
+        <c:axId val="121319808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2087,7 +2080,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112785280"/>
+        <c:crossAx val="121231616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2100,7 +2093,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2307,11 +2300,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="112836992"/>
-        <c:axId val="112838912"/>
+        <c:axId val="121352960"/>
+        <c:axId val="121354880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112836992"/>
+        <c:axId val="121352960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2339,14 +2332,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112838912"/>
+        <c:crossAx val="121354880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112838912"/>
+        <c:axId val="121354880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2375,7 +2368,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112836992"/>
+        <c:crossAx val="121352960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2388,7 +2381,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3096,7 +3089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -3284,9 +3277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
